--- a/reporting/звіт 14.06 — копия.xlsx
+++ b/reporting/звіт 14.06 — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195EDB8-2229-436B-B538-53638B6D44AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF30FE8-3679-449E-84C8-D6F65325622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{48B3DBE0-D8D5-4DCC-97E9-8D56066B7B4E}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="134">
   <si>
     <t>ПОСТОЯННЫЕ ЗАТРАТЫ</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Всего по объектам КРС</t>
+  </si>
+  <si>
+    <t>РАЗОМ, з ПДВ</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1102,15 @@
     <xf numFmtId="3" fontId="9" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,15 +1126,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,16 +1135,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1602,66 +1605,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -3633,11 +3636,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="B1:B3"/>
@@ -3647,6 +3645,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9040,29 +9043,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>74</v>
       </c>
       <c r="J1" s="40" t="s">
@@ -9101,15 +9104,15 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -9124,7 +9127,7 @@
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="5"/>
       <c r="D3" s="46"/>
@@ -10903,61 +10906,61 @@
   <sheetData>
     <row r="1" spans="1:15" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="108"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="105" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="109"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="110"/>
@@ -12120,11 +12123,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
@@ -12134,6 +12132,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -12162,53 +12165,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="96"/>
       <c r="D3" s="46"/>
@@ -13092,17 +13095,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13131,53 +13134,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="96"/>
       <c r="D3" s="46"/>
@@ -14056,17 +14059,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14094,53 +14097,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="96"/>
       <c r="D3" s="46"/>
@@ -14868,17 +14871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14907,53 +14910,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="96"/>
       <c r="D3" s="46"/>
@@ -15712,17 +15715,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15736,7 +15739,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15750,53 +15753,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="96"/>
       <c r="D3" s="46"/>
@@ -15884,7 +15887,6 @@
         <v>24</v>
       </c>
       <c r="C8" s="97">
-        <f>104206512.18+3272829.46</f>
         <v>107479341.64</v>
       </c>
       <c r="D8" s="12">
@@ -16056,7 +16058,6 @@
         <v>37</v>
       </c>
       <c r="C18" s="97">
-        <f>13786560+7220112</f>
         <v>21006672</v>
       </c>
       <c r="D18" s="12">
@@ -16079,7 +16080,6 @@
         <v>39</v>
       </c>
       <c r="C19" s="97">
-        <f>57196672.86+14718600</f>
         <v>71915272.859999999</v>
       </c>
       <c r="D19" s="12">
@@ -16212,7 +16212,6 @@
         <v>48</v>
       </c>
       <c r="C26" s="97">
-        <f>69883018.44</f>
         <v>69883018.439999998</v>
       </c>
       <c r="D26" s="12">
@@ -16327,8 +16326,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="97">
-        <f>12287938.4*1.2</f>
-        <v>14745526.08</v>
+        <v>12551938.4</v>
       </c>
       <c r="D32" s="12">
         <f t="shared" si="0"/>
@@ -16350,7 +16348,6 @@
         <v>58</v>
       </c>
       <c r="C33" s="97">
-        <f>6592651.28</f>
         <v>6592651.2800000003</v>
       </c>
       <c r="D33" s="12">
@@ -16373,8 +16370,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="97">
-        <f>6895532.66+4224000+1458318</f>
-        <v>12577850.66</v>
+        <v>19545647.204</v>
       </c>
       <c r="D34" s="12">
         <f t="shared" si="0"/>
@@ -16411,11 +16407,11 @@
     <row r="36" spans="1:18" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="55" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C36" s="99">
         <f>SUM(C8:C35)</f>
-        <v>364047415.13999999</v>
+        <v>368821624.00399995</v>
       </c>
       <c r="D36" s="26">
         <f t="shared" si="0"/>
@@ -16519,17 +16515,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16557,49 +16553,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="106"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="107"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="53"/>
       <c r="C3" s="46"/>
       <c r="D3" s="87"/>
@@ -17233,16 +17229,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
